--- a/Imputation_Fairness.xlsx
+++ b/Imputation_Fairness.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD198DD-7872-4D12-BF0E-5722450C9702}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC0B7C-C98A-45A0-9191-C6B7E23A7166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="B10" sqref="B10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,33 +1000,65 @@
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.044</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0440499999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0448999999999999</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="I9" s="4">
+        <v>0.877</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.874</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.87660000000000005</v>
+      </c>
       <c r="M9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="P9" s="4">
+        <v>-0.22700000000000001</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>-0.224</v>
+      </c>
+      <c r="R9" s="4">
+        <v>-0.23699999999999999</v>
+      </c>
+      <c r="S9" s="4">
+        <v>-0.2422</v>
+      </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="W9" s="4">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="X9" s="4">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>-2.8000000000000001E-2</v>
+      </c>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>

--- a/Imputation_Fairness.xlsx
+++ b/Imputation_Fairness.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC0B7C-C98A-45A0-9191-C6B7E23A7166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F650620-DDDB-4AC0-BB09-6D6992C6FF75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13530" windowHeight="1170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>I2</t>
   </si>
   <si>
-    <t>Method</t>
-  </si>
-  <si>
     <t>I3</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Method\Imputer</t>
   </si>
 </sst>
 </file>
@@ -468,18 +468,18 @@
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:L10"/>
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -488,7 +488,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -497,7 +497,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -506,7 +506,7 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
@@ -517,7 +517,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>0</v>
@@ -547,19 +547,19 @@
         <v>1</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>0</v>
@@ -568,19 +568,19 @@
         <v>1</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>0</v>
@@ -589,24 +589,24 @@
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4">
         <v>0.73</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>1.06</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>1.125</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <v>0.79</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4">
         <v>0.76</v>
@@ -912,7 +912,7 @@
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4">
@@ -933,7 +933,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>0.96</v>
@@ -998,19 +998,19 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4">
-        <v>1.04</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="C9" s="4">
-        <v>1.044</v>
+        <v>1.157</v>
       </c>
       <c r="D9" s="4">
-        <v>1.0440499999999999</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E9" s="4">
-        <v>1.0448999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1019,16 +1019,16 @@
         <v>0.877</v>
       </c>
       <c r="J9" s="4">
-        <v>0.875</v>
+        <v>0.93769999999999998</v>
       </c>
       <c r="K9" s="4">
-        <v>0.874</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="L9" s="4">
-        <v>0.87660000000000005</v>
+        <v>1.0359</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1036,13 +1036,13 @@
         <v>-0.22700000000000001</v>
       </c>
       <c r="Q9" s="4">
-        <v>-0.224</v>
+        <v>-0.33100000000000002</v>
       </c>
       <c r="R9" s="4">
-        <v>-0.23699999999999999</v>
+        <v>-0.24249999999999999</v>
       </c>
       <c r="S9" s="4">
-        <v>-0.2422</v>
+        <v>-2.2599999999999999E-2</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -1051,13 +1051,13 @@
         <v>-2.8000000000000001E-2</v>
       </c>
       <c r="X9" s="4">
-        <v>-2.7E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="Y9" s="4">
-        <v>-2.4E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="Z9" s="4">
-        <v>-2.8000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
@@ -1065,132 +1065,260 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.306</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.478</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="I10" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1.121</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1.2244999999999999</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="P10" s="4">
+        <v>-0.38124999999999998</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>-0.35299999999999998</v>
+      </c>
+      <c r="R10" s="4">
+        <v>-0.33400000000000002</v>
+      </c>
+      <c r="S10" s="4">
+        <v>-0.2072</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="W10" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="X10" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>4.1700000000000001E-2</v>
+      </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.091</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.3025</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.4810000000000001</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="I11" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1.3025</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1.2237</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="P11" s="4">
+        <v>-0.38153999999999999</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>-0.32800000000000001</v>
+      </c>
+      <c r="R11" s="4">
+        <v>-0.35049999999999998</v>
+      </c>
+      <c r="S11" s="4">
+        <v>-0.20499999999999999</v>
+      </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="W11" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X11" s="4">
+        <v>-0.32800000000000001</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0.1114</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2.5390000000000001</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="I12" s="4">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1.2270000000000001</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="P12" s="4">
+        <v>1.32E-2</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>-0.10979999999999999</v>
+      </c>
+      <c r="R12" s="4">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="S12" s="4">
+        <v>2.4923999999999999</v>
+      </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="W12" s="4">
+        <v>1.11E-2</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0.1424</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>3.2000000000000002E-3</v>
+      </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.70009999999999994</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.65510000000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.5371999999999999</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="I13" s="4">
+        <v>0.68279999999999996</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.59130000000000005</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.59250000000000003</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1.2181999999999999</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="P13" s="4">
+        <v>1.06E-2</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>-0.1118</v>
+      </c>
+      <c r="R13" s="4">
+        <v>-8.7099999999999997E-2</v>
+      </c>
+      <c r="S13" s="4">
+        <v>2.4847000000000001</v>
+      </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="W13" s="4">
+        <v>1.03E-2</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0.13789999999999999</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0.14127000000000001</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>1.43E-2</v>
+      </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>

--- a/Imputation_Fairness.xlsx
+++ b/Imputation_Fairness.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F650620-DDDB-4AC0-BB09-6D6992C6FF75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A9E43A-3BDA-416E-B214-F7982912AF22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13530" windowHeight="1170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>I1</t>
   </si>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,9 @@
       <c r="E3" s="4">
         <v>2.73</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4">
+        <v>2.1739999999999999</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4">
@@ -635,7 +637,9 @@
       <c r="L3" s="4">
         <v>1.52</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4">
+        <v>2.1120000000000001</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4">
@@ -650,7 +654,9 @@
       <c r="S3" s="4">
         <v>1.65</v>
       </c>
-      <c r="T3" s="4"/>
+      <c r="T3" s="4">
+        <v>-1.7999999999999999E-2</v>
+      </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4">
@@ -665,7 +671,9 @@
       <c r="Z3" s="4">
         <v>-0.04</v>
       </c>
-      <c r="AA3" s="4"/>
+      <c r="AA3" s="4">
+        <v>-0.14399999999999999</v>
+      </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
@@ -685,7 +693,9 @@
       <c r="E4" s="4">
         <v>1.54</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>1.9810000000000001</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4">
@@ -700,7 +710,9 @@
       <c r="L4" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4">
+        <v>1.98</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4">
@@ -715,7 +727,9 @@
       <c r="S4" s="4">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="T4" s="4"/>
+      <c r="T4" s="4">
+        <v>-0.113</v>
+      </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4">
@@ -730,7 +744,9 @@
       <c r="Z4" s="4">
         <v>-1E-3</v>
       </c>
-      <c r="AA4" s="4"/>
+      <c r="AA4" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
@@ -750,7 +766,9 @@
       <c r="E5" s="4">
         <v>1.36</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4">
+        <v>1.994</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4">
@@ -765,7 +783,9 @@
       <c r="L5" s="4">
         <v>1.0900000000000001</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4">
+        <v>1.946</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4">
@@ -780,7 +800,9 @@
       <c r="S5" s="4">
         <v>-0.2</v>
       </c>
-      <c r="T5" s="4"/>
+      <c r="T5" s="4">
+        <v>-0.19700000000000001</v>
+      </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4">
@@ -795,7 +817,9 @@
       <c r="Z5" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AA5" s="4"/>
+      <c r="AA5" s="4">
+        <v>-5.5E-2</v>
+      </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
@@ -815,7 +839,9 @@
       <c r="E6" s="4">
         <v>1.31</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>1.919</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4">
@@ -830,7 +856,9 @@
       <c r="L6" s="4">
         <v>1.04</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <v>2.0419999999999998</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4">
@@ -845,7 +873,9 @@
       <c r="S6" s="4">
         <v>-0.129</v>
       </c>
-      <c r="T6" s="4"/>
+      <c r="T6" s="4">
+        <v>-0.151</v>
+      </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4">
@@ -860,7 +890,9 @@
       <c r="Z6" s="4">
         <v>0.01</v>
       </c>
-      <c r="AA6" s="4"/>
+      <c r="AA6" s="4">
+        <v>9.0999999999999998E-2</v>
+      </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
@@ -880,7 +912,9 @@
       <c r="E7" s="4">
         <v>2.14</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <v>2.2120000000000002</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4">
@@ -895,7 +929,9 @@
       <c r="L7" s="4">
         <v>1.52</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4">
+        <v>2.2930000000000001</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4">
@@ -910,7 +946,9 @@
       <c r="S7" s="4">
         <v>0.2</v>
       </c>
-      <c r="T7" s="4"/>
+      <c r="T7" s="4">
+        <v>0.16600000000000001</v>
+      </c>
       <c r="U7" s="4" t="s">
         <v>22</v>
       </c>
@@ -927,7 +965,9 @@
       <c r="Z7" s="4">
         <v>-0.14699999999999999</v>
       </c>
-      <c r="AA7" s="4"/>
+      <c r="AA7" s="4">
+        <v>-0.155</v>
+      </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
@@ -947,7 +987,9 @@
       <c r="E8" s="4">
         <v>1.69</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <v>1.9498</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4">
@@ -962,7 +1004,9 @@
       <c r="L8" s="4">
         <v>1.2709999999999999</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>1.89</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4">
@@ -977,7 +1021,9 @@
       <c r="S8" s="4">
         <v>-0.09</v>
       </c>
-      <c r="T8" s="4"/>
+      <c r="T8" s="4">
+        <v>-0.128</v>
+      </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4">
@@ -992,7 +1038,9 @@
       <c r="Z8" s="4">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="AA8" s="4"/>
+      <c r="AA8" s="4">
+        <v>-0.11899999999999999</v>
+      </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
@@ -1012,7 +1060,9 @@
       <c r="E9" s="4">
         <v>1.4</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>2.0089999999999999</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
@@ -1027,8 +1077,8 @@
       <c r="L9" s="4">
         <v>1.0359</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>22</v>
+      <c r="M9" s="4">
+        <v>1.9119999999999999</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1044,7 +1094,9 @@
       <c r="S9" s="4">
         <v>-2.2599999999999999E-2</v>
       </c>
-      <c r="T9" s="4"/>
+      <c r="T9" s="4">
+        <v>0.03</v>
+      </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4">
@@ -1059,7 +1111,9 @@
       <c r="Z9" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA9" s="4"/>
+      <c r="AA9" s="4">
+        <v>-0.01</v>
+      </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
@@ -1079,7 +1133,9 @@
       <c r="E10" s="4">
         <v>1.478</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>1.946</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4">
@@ -1094,7 +1150,9 @@
       <c r="L10" s="4">
         <v>1.2244999999999999</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <v>1.903</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4">
@@ -1109,7 +1167,9 @@
       <c r="S10" s="4">
         <v>-0.2072</v>
       </c>
-      <c r="T10" s="4"/>
+      <c r="T10" s="4">
+        <v>-0.19600000000000001</v>
+      </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4">
@@ -1124,7 +1184,9 @@
       <c r="Z10" s="4">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="AA10" s="4"/>
+      <c r="AA10" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
@@ -1144,7 +1206,9 @@
       <c r="E11" s="4">
         <v>1.4810000000000001</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>2.0110000000000001</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4">
@@ -1159,7 +1223,9 @@
       <c r="L11" s="4">
         <v>1.2237</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>1.964</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4">
@@ -1174,7 +1240,9 @@
       <c r="S11" s="4">
         <v>-0.20499999999999999</v>
       </c>
-      <c r="T11" s="4"/>
+      <c r="T11" s="4">
+        <v>-8.6999999999999994E-2</v>
+      </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4">
@@ -1189,7 +1257,9 @@
       <c r="Z11" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA11" s="4"/>
+      <c r="AA11" s="4">
+        <v>7.6999999999999999E-2</v>
+      </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
@@ -1209,7 +1279,9 @@
       <c r="E12" s="4">
         <v>2.5390000000000001</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>1.998</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4">
@@ -1224,7 +1296,9 @@
       <c r="L12" s="4">
         <v>1.2270000000000001</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4">
+        <v>1.9710000000000001</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4">
@@ -1239,7 +1313,9 @@
       <c r="S12" s="4">
         <v>2.4923999999999999</v>
       </c>
-      <c r="T12" s="4"/>
+      <c r="T12" s="4">
+        <v>-9.0999999999999998E-2</v>
+      </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4">
@@ -1254,7 +1330,9 @@
       <c r="Z12" s="4">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="AA12" s="4"/>
+      <c r="AA12" s="4">
+        <v>-0.115</v>
+      </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
@@ -1274,7 +1352,9 @@
       <c r="E13" s="4">
         <v>2.5371999999999999</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <v>2.6349999999999998</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4">
@@ -1289,7 +1369,9 @@
       <c r="L13" s="4">
         <v>1.2181999999999999</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4">
+        <v>1.9179999999999999</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4">
@@ -1304,7 +1386,9 @@
       <c r="S13" s="4">
         <v>2.4847000000000001</v>
       </c>
-      <c r="T13" s="4"/>
+      <c r="T13" s="4">
+        <v>1.87</v>
+      </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4">
@@ -1319,7 +1403,9 @@
       <c r="Z13" s="4">
         <v>1.43E-2</v>
       </c>
-      <c r="AA13" s="4"/>
+      <c r="AA13" s="4">
+        <v>-0.28499999999999998</v>
+      </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
